--- a/biology/Botanique/Elettaria/Elettaria.xlsx
+++ b/biology/Botanique/Elettaria/Elettaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Elettaria regroupe 11 espèces de plantes monocotylédones de la famille des Zingibéracées. 
 </t>
@@ -511,14 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Elettaria a été décrit par le naturaliste britannique William George Maton  en 1811. Il l'a nommé d'après le nom local de la cardamome, elletari, en Malayalam ancien (Sud Ouest de l'Inde).
-Synonymie
-Les genres et les plantes de cette famille ont dû, après un foisonnement normal et créatif de désignations, être rationalisés. 
-C'est le jardin botanique de Kew qui s'en est chargé.
-Selon World Checklist of Selected Plant Families (WCSP)  (18 octobre 2011)[1] :
-Cardamomum Noronha, (1790)
 </t>
         </is>
       </c>
@@ -544,12 +553,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres et les plantes de cette famille ont dû, après un foisonnement normal et créatif de désignations, être rationalisés. 
+C'est le jardin botanique de Kew qui s'en est chargé.
+Selon World Checklist of Selected Plant Families (WCSP)  (18 octobre 2011) :
+Cardamomum Noronha, (1790)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elettaria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elettaria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste de espèces World Checklist of Selected Plant Families (WCSP)  (18 octobre 2011)[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste de espèces World Checklist of Selected Plant Families (WCSP)  (18 octobre 2011)
 Elettaria brachycalyx S.Sakai &amp; Nagam., (2000) (Bornéo)
 Elettaria cardamomum (L.) Maton, (1811) - Cardamome cultivée (Inde)
 Elettaria ensal (Gaertn.) Abeyw., (1959)       (Sri Lanka)
@@ -561,7 +612,7 @@
 Elettaria rubida R.M.Sm., (1982) (Bornéo)
 Elettaria stoloniflora (K.Schum.) S.Sakai &amp; Nagam., (2000) (Bornéo)
 Elettaria surculosa (K.Schum.) B.L.Burtt &amp; R.M.Sm., (1972) (Bornéo)
-Espèces aux noms synonymes, obsolètes et leurs taxons de référence[1] :
+Espèces aux noms synonymes, obsolètes et leurs taxons de référence :
 Elettaria alba Blume, (1827) = ?
 Elettaria anthodioides Teijsm. &amp; Binn., (1855) = Etlingera hemisphaerica (Blume) R.M.Sm., (1986).
 Elettaria atropurpurea Teijsm. &amp; Binn., (1862) = Etlingera hemisphaerica (Blume) R.M.Sm., (1986).
